--- a/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 3 (1–6 de septiembre 2025).xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 3 (1–6 de septiembre 2025).xlsx
@@ -679,7 +679,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>1</v>
@@ -702,7 +702,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>45901.0</v>
@@ -725,7 +725,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>45901.0</v>
@@ -748,7 +748,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>45901.0</v>
@@ -771,7 +771,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>45901.0</v>
@@ -794,7 +794,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>45902.0</v>
@@ -817,7 +817,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="6">
         <v>45902.0</v>
@@ -840,7 +840,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="6">
         <v>45902.0</v>
@@ -863,7 +863,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="6">
         <v>45902.0</v>
@@ -886,7 +886,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="6">
         <v>45903.0</v>
@@ -909,7 +909,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="6">
         <v>45903.0</v>
@@ -932,7 +932,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="6">
         <v>45903.0</v>
@@ -955,7 +955,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="6">
         <v>45903.0</v>
@@ -978,7 +978,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="6">
         <v>45904.0</v>
@@ -1001,7 +1001,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="6">
         <v>45904.0</v>
@@ -1024,7 +1024,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="6">
         <v>45904.0</v>
@@ -1047,7 +1047,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="6">
         <v>45904.0</v>
@@ -1070,7 +1070,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="6">
         <v>45905.0</v>
@@ -1093,7 +1093,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="6">
         <v>45905.0</v>
@@ -1116,7 +1116,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" ht="22.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="6">
         <v>45905.0</v>
@@ -1139,7 +1139,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" ht="22.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="6">
         <v>45905.0</v>
@@ -1162,7 +1162,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" ht="22.5" customHeight="1">
       <c r="B28" s="6">
         <v>45906.0</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="22.5" customHeight="1">
       <c r="B29" s="6">
         <v>45906.0</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="22.5" customHeight="1">
       <c r="B30" s="6">
         <v>45906.0</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="22.5" customHeight="1">
       <c r="B31" s="6">
         <v>45906.0</v>
       </c>
